--- a/arvore_decisao.xlsx
+++ b/arvore_decisao.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayumi\chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF970476-B392-472C-9998-DC7AC9C44AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB69D22-2EAC-4003-9680-A57EA8075B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FCFC44A9-22EF-4FFE-A4AF-2B4301E93609}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FCFC44A9-22EF-4FFE-A4AF-2B4301E93609}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -22,6 +23,62 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+  <si>
+    <t>caro?</t>
+  </si>
+  <si>
+    <t>sim|não</t>
+  </si>
+  <si>
+    <t>57|76</t>
+  </si>
+  <si>
+    <t>quartos&lt;=3?</t>
+  </si>
+  <si>
+    <t>banheiros&gt;=2.5?</t>
+  </si>
+  <si>
+    <t>16|24</t>
+  </si>
+  <si>
+    <t>74|87</t>
+  </si>
+  <si>
+    <t>54|66</t>
+  </si>
+  <si>
+    <t>sqft_living&lt;=1435?</t>
+  </si>
+  <si>
+    <t>36|45</t>
+  </si>
+  <si>
+    <t>33|35</t>
+  </si>
+  <si>
+    <t>13|8</t>
+  </si>
+  <si>
+    <t>sqft_lot&lt;=11000?</t>
+  </si>
+  <si>
+    <t>77|103</t>
+  </si>
+  <si>
+    <t>floors&lt;2?</t>
+  </si>
+  <si>
+    <t>67|76</t>
+  </si>
+  <si>
+    <t>23|35</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -51,12 +108,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,7 +990,21 @@
       </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{978FB465-D76D-4EB7-BC6C-083531CA1090}">
-      <dgm:prSet phldrT="[Texto]" phldr="1"/>
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>banheiros&lt;=3?</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{38604642-A60E-4DA9-A3F9-EB65C66F364E}" type="parTrans" cxnId="{E7637972-CFA7-4425-B6F5-B5770E5C2ED8}">
+      <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -846,7 +1014,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{38604642-A60E-4DA9-A3F9-EB65C66F364E}" type="parTrans" cxnId="{E7637972-CFA7-4425-B6F5-B5770E5C2ED8}">
+    <dgm:pt modelId="{C5420625-C209-4716-AB0F-11C5491C0C76}" type="sibTrans" cxnId="{E7637972-CFA7-4425-B6F5-B5770E5C2ED8}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -857,7 +1025,33 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{C5420625-C209-4716-AB0F-11C5491C0C76}" type="sibTrans" cxnId="{E7637972-CFA7-4425-B6F5-B5770E5C2ED8}">
+    <dgm:pt modelId="{1633CB6F-B550-4637-B123-DBA669734BA7}" type="asst">
+      <dgm:prSet phldrT="[Texto]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>caro?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>sim0|nao1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>57   76</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6B439026-0B0D-4F70-B258-7C3A19E666E8}" type="parTrans" cxnId="{EB2B1617-23ED-4572-80A3-CEA45A1E3473}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -868,8 +1062,8 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{1633CB6F-B550-4637-B123-DBA669734BA7}" type="asst">
-      <dgm:prSet phldrT="[Texto]" phldr="1"/>
+    <dgm:pt modelId="{10BAECA4-7866-45D6-BA7C-0965645B2662}" type="sibTrans" cxnId="{EB2B1617-23ED-4572-80A3-CEA45A1E3473}">
+      <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -879,34 +1073,24 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{6B439026-0B0D-4F70-B258-7C3A19E666E8}" type="parTrans" cxnId="{EB2B1617-23ED-4572-80A3-CEA45A1E3473}">
+    <dgm:pt modelId="{E6836776-14C9-4F03-8541-DBF33A1B4BCD}" type="asst">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>caro?</a:t>
+          </a:r>
         </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{10BAECA4-7866-45D6-BA7C-0965645B2662}" type="sibTrans" cxnId="{EB2B1617-23ED-4572-80A3-CEA45A1E3473}">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
         <a:p>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:r>
+            <a:rPr lang="pt-BR"/>
+            <a:t>sim0|nao1</a:t>
+          </a:r>
         </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{E6836776-14C9-4F03-8541-DBF33A1B4BCD}" type="asst">
-      <dgm:prSet/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
         <a:p>
           <a:endParaRPr lang="pt-BR"/>
         </a:p>
@@ -1092,7 +1276,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{66BB1C8F-5F1A-4F90-9A67-8FC1ED7EE4D4}" type="pres">
-      <dgm:prSet presAssocID="{978FB465-D76D-4EB7-BC6C-083531CA1090}" presName="rootText1" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1" custScaleY="96991" custLinFactNeighborX="-5483" custLinFactNeighborY="-98699">
+      <dgm:prSet presAssocID="{978FB465-D76D-4EB7-BC6C-083531CA1090}" presName="rootText1" presStyleLbl="node0" presStyleIdx="0" presStyleCnt="1" custScaleY="96991" custLinFactNeighborX="-11493" custLinFactNeighborY="15391">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1236,7 +1420,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{2F8F20EA-5972-4B05-955D-1658AE9D9F5A}" type="pres">
-      <dgm:prSet presAssocID="{E6836776-14C9-4F03-8541-DBF33A1B4BCD}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="1" presStyleCnt="2" custLinFactNeighborX="74938">
+      <dgm:prSet presAssocID="{E6836776-14C9-4F03-8541-DBF33A1B4BCD}" presName="rootText3" presStyleLbl="asst1" presStyleIdx="1" presStyleCnt="2" custLinFactNeighborX="44889" custLinFactNeighborY="-3606">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1431,8 +1615,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4787336" y="1895733"/>
-          <a:ext cx="545317" cy="730934"/>
+          <a:off x="4741616" y="1867157"/>
+          <a:ext cx="91440" cy="759510"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1443,10 +1627,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="545317" y="0"/>
+                <a:pt x="114794" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="730934"/>
+                <a:pt x="45720" y="759510"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1487,8 +1671,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="5175464" y="1895733"/>
-          <a:ext cx="157189" cy="700243"/>
+          <a:off x="4856410" y="1867157"/>
+          <a:ext cx="319053" cy="728819"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1499,13 +1683,10 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="157189" y="0"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="157189" y="700243"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="700243"/>
+                <a:pt x="319053" y="728819"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1546,8 +1727,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3099213" y="768599"/>
-          <a:ext cx="1440996" cy="730911"/>
+          <a:off x="3003961" y="892427"/>
+          <a:ext cx="1060005" cy="578508"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1561,10 +1742,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="730911"/>
+                <a:pt x="0" y="578508"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1440996" y="730911"/>
+                <a:pt x="1060005" y="578508"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1720,8 +1901,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1989521" y="768599"/>
-          <a:ext cx="1109691" cy="730911"/>
+          <a:off x="1989521" y="892427"/>
+          <a:ext cx="1014439" cy="607083"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1732,13 +1913,13 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1109691" y="0"/>
+                <a:pt x="1014439" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1109691" y="730911"/>
+                <a:pt x="1014439" y="607083"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="730911"/>
+                <a:pt x="0" y="607083"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1779,7 +1960,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2306768" y="0"/>
+          <a:off x="2211516" y="123827"/>
           <a:ext cx="1584888" cy="768599"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1822,12 +2003,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="27305" tIns="27305" rIns="27305" bIns="27305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1911350">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1839,11 +2020,14 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR" sz="4300" kern="1200"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
+            <a:t>banheiros&lt;=3?</a:t>
+          </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2306768" y="0"/>
+        <a:off x="2211516" y="123827"/>
         <a:ext cx="1584888" cy="768599"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -1897,12 +2081,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="27305" tIns="27305" rIns="27305" bIns="27305" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1911350">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1914,7 +2098,46 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR" sz="4300" kern="1200"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
+            <a:t>caro?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
+            <a:t>sim0|nao1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
+            <a:t>57   76</a:t>
+          </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -1972,12 +2195,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="33020" tIns="33020" rIns="33020" bIns="33020" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="2311400">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -1989,7 +2212,7 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR" sz="5200" kern="1200"/>
+          <a:endParaRPr lang="pt-BR" sz="1400" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -2047,12 +2270,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="33020" tIns="33020" rIns="33020" bIns="33020" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="2311400">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2064,7 +2287,7 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR" sz="5200" kern="1200"/>
+          <a:endParaRPr lang="pt-BR" sz="1400" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -2079,7 +2302,7 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4540209" y="1103288"/>
+          <a:off x="4063966" y="1074713"/>
           <a:ext cx="1584888" cy="792444"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2122,12 +2345,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="33020" tIns="33020" rIns="33020" bIns="33020" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="2311400">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2139,11 +2362,47 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR" sz="5200" kern="1200"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
+            <a:t>caro?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" kern="1200"/>
+            <a:t>sim0|nao1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR" sz="1400" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4540209" y="1103288"/>
+        <a:off x="4063966" y="1074713"/>
         <a:ext cx="1584888" cy="792444"/>
       </dsp:txXfrm>
     </dsp:sp>
@@ -2197,12 +2456,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="33020" tIns="33020" rIns="33020" bIns="33020" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="2311400">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2214,7 +2473,7 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR" sz="5200" kern="1200"/>
+          <a:endParaRPr lang="pt-BR" sz="1400" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -2272,12 +2531,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="33020" tIns="33020" rIns="33020" bIns="33020" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="8890" tIns="8890" rIns="8890" bIns="8890" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="2311400">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="622300">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2289,7 +2548,7 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR" sz="5200" kern="1200"/>
+          <a:endParaRPr lang="pt-BR" sz="1400" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
@@ -4821,7 +5080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9FFEF3-D7E1-4156-BC56-38401EE94244}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
@@ -4830,4 +5089,199 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF305A8-9ACD-425D-8321-92328A7792B8}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/arvore_decisao.xlsx
+++ b/arvore_decisao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayumi\chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB69D22-2EAC-4003-9680-A57EA8075B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AA1558-73F3-4817-B698-9098E0AB2286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FCFC44A9-22EF-4FFE-A4AF-2B4301E93609}"/>
   </bookViews>
@@ -26,15 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="13">
   <si>
     <t>caro?</t>
   </si>
   <si>
     <t>sim|não</t>
-  </si>
-  <si>
-    <t>57|76</t>
   </si>
   <si>
     <t>quartos&lt;=3?</t>
@@ -43,40 +40,31 @@
     <t>banheiros&gt;=2.5?</t>
   </si>
   <si>
-    <t>16|24</t>
-  </si>
-  <si>
-    <t>74|87</t>
-  </si>
-  <si>
-    <t>54|66</t>
-  </si>
-  <si>
     <t>sqft_living&lt;=1435?</t>
-  </si>
-  <si>
-    <t>36|45</t>
-  </si>
-  <si>
-    <t>33|35</t>
-  </si>
-  <si>
-    <t>13|8</t>
   </si>
   <si>
     <t>sqft_lot&lt;=11000?</t>
   </si>
   <si>
-    <t>77|103</t>
-  </si>
-  <si>
     <t>floors&lt;2?</t>
   </si>
   <si>
-    <t>67|76</t>
+    <t>views==2?</t>
   </si>
   <si>
-    <t>23|35</t>
+    <t>condition&gt;3?</t>
+  </si>
+  <si>
+    <t>grade&gt;4?</t>
+  </si>
+  <si>
+    <t>impureza de gini</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>não</t>
   </si>
 </sst>
 </file>
@@ -192,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -201,16 +189,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5093,192 +5083,565 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF305A8-9ACD-425D-8321-92328A7792B8}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6" t="s">
-        <v>0</v>
-      </c>
+      <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6" t="s">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="9" t="s">
-        <v>11</v>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>57</v>
+      </c>
+      <c r="B4" s="5">
+        <v>76</v>
+      </c>
+      <c r="C4" s="9">
+        <v>33</v>
+      </c>
+      <c r="D4" s="8">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <f>1-((A4/(B4+A4))^2)-((B4/(A4+B4))^2)</f>
+        <v>0.48979591836734698</v>
+      </c>
+      <c r="H4">
+        <f>1-((C4/(D4+C4))^2)-((D4/(C4+D4))^2)</f>
+        <v>0.49956747404844298</v>
+      </c>
+      <c r="J4">
+        <f>((A4+B4)/199)*F4+((C4+D4)/199)*H4</f>
+        <v>0.49805751446307167</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7">
+        <v>35</v>
+      </c>
+      <c r="C8" s="10">
+        <v>67</v>
+      </c>
+      <c r="D8" s="11">
+        <v>76</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F5:F36" si="0">1-((A8/(B8+A8))^2)-((B8/(A8+B8))^2)</f>
+        <v>0.47859690844233055</v>
+      </c>
+      <c r="H8">
+        <f>1-((C8/(D8+C8))^2)-((D8/(C8+D8))^2)</f>
+        <v>0.49801946305442812</v>
+      </c>
+      <c r="J8">
+        <f>((A8+B8)/199)*F8+((C8+D8)/199)*H8</f>
+        <v>0.49736383872582107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="9" t="s">
         <v>0</v>
       </c>
+      <c r="D10" s="8"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>36</v>
+      </c>
+      <c r="B12" s="7">
+        <v>27</v>
+      </c>
+      <c r="C12" s="10">
+        <v>54</v>
+      </c>
+      <c r="D12" s="11">
+        <v>84</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.48979591836734704</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12" si="1">1-((C12/(D12+C12))^2)-((D12/(C12+D12))^2)</f>
+        <v>0.47637051039697537</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J5:J36" si="2">((A12+B12)/199)*F12+((C12+D12)/199)*H12</f>
+        <v>0.48540840850213801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>19</v>
+      </c>
+      <c r="B16" s="7">
+        <v>30</v>
+      </c>
+      <c r="C16" s="10">
+        <v>16</v>
+      </c>
+      <c r="D16" s="11">
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.47480216576426493</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ref="H16" si="3">1-((C16/(D16+C16))^2)-((D16/(C16+D16))^2)</f>
+        <v>0.48</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="2"/>
+        <v>0.21339349810275871</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="9" t="s">
         <v>1</v>
       </c>
+      <c r="D19" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
-        <v>15</v>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>23</v>
+      </c>
+      <c r="B20" s="7">
+        <v>35</v>
+      </c>
+      <c r="C20" s="10">
+        <v>67</v>
+      </c>
+      <c r="D20" s="11">
+        <v>76</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.47859690844233055</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ref="H20" si="4">1-((C20/(D20+C20))^2)-((D20/(C20+D20))^2)</f>
+        <v>0.49801946305442812</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="2"/>
+        <v>0.49736383872582107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>36</v>
+      </c>
+      <c r="B24" s="7">
+        <v>45</v>
+      </c>
+      <c r="C24" s="10">
+        <v>54</v>
+      </c>
+      <c r="D24" s="11">
+        <v>66</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.49382716049382713</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24" si="5">1-((C24/(D24+C24))^2)-((D24/(C24+D24))^2)</f>
+        <v>0.49499999999999994</v>
+      </c>
+      <c r="J24">
+        <f>((A24+B24)/199)*F24+((C24+D24)/199)*H24</f>
+        <v>0.49949748743718586</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>0</v>
+      </c>
+      <c r="B28" s="7">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10">
+        <v>89</v>
+      </c>
+      <c r="D28" s="11">
+        <v>110</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28" si="6">1-((C28/(D28+C28))^2)-((D28/(C28+D28))^2)</f>
+        <v>0.49443195878891955</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>0.49443195878891955</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>77</v>
+      </c>
+      <c r="B32" s="7">
+        <v>103</v>
+      </c>
+      <c r="C32" s="10">
+        <v>13</v>
+      </c>
+      <c r="D32" s="11">
+        <v>8</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.48956790123456795</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ref="H32" si="7">1-((C32/(D32+C32))^2)-((D32/(C32+D32))^2)</f>
+        <v>0.47165532879818595</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="2"/>
+        <v>0.49259791018584992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>64</v>
+      </c>
+      <c r="B36" s="7">
+        <v>62</v>
+      </c>
+      <c r="C36" s="10">
+        <v>26</v>
+      </c>
+      <c r="D36" s="11">
+        <v>49</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0.49987402368354755</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ref="H36" si="8">1-((C36/(D36+C36))^2)-((D36/(C36+D36))^2)</f>
+        <v>0.45297777777777776</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="2"/>
+        <v>0.48722341868070518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>64</v>
+      </c>
+      <c r="B40" s="7">
+        <v>62</v>
+      </c>
+      <c r="C40" s="10">
+        <v>26</v>
+      </c>
+      <c r="D40" s="11">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/arvore_decisao.xlsx
+++ b/arvore_decisao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayumi\chatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AA1558-73F3-4817-B698-9098E0AB2286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD25A78-E461-450F-AC14-AE8C1C741873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FCFC44A9-22EF-4FFE-A4AF-2B4301E93609}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="16">
   <si>
     <t>caro?</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>não</t>
+  </si>
+  <si>
+    <t>quartos&lt;=2?</t>
+  </si>
+  <si>
+    <t>quartos&lt;=4?</t>
+  </si>
+  <si>
+    <t>banheiros&gt;=2?</t>
   </si>
 </sst>
 </file>
@@ -180,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -201,6 +210,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5083,10 +5107,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF305A8-9ACD-425D-8321-92328A7792B8}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5103,30 +5127,30 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="16"/>
       <c r="D1" s="3"/>
       <c r="J1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -5137,10 +5161,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>57</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="11">
         <v>76</v>
       </c>
       <c r="C4" s="9">
@@ -5164,27 +5188,27 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="16"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -5196,53 +5220,53 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>23</v>
-      </c>
-      <c r="B8" s="7">
-        <v>35</v>
-      </c>
-      <c r="C8" s="10">
-        <v>67</v>
-      </c>
-      <c r="D8" s="11">
-        <v>76</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9">
+        <v>87</v>
+      </c>
+      <c r="D8" s="8">
+        <v>94</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F5:F36" si="0">1-((A8/(B8+A8))^2)-((B8/(A8+B8))^2)</f>
-        <v>0.47859690844233055</v>
+        <f t="shared" ref="F8:F12" si="0">1-((A8/(B8+A8))^2)-((B8/(A8+B8))^2)</f>
+        <v>0.38563327032136119</v>
       </c>
       <c r="H8">
-        <f>1-((C8/(D8+C8))^2)-((D8/(C8+D8))^2)</f>
-        <v>0.49801946305442812</v>
+        <f t="shared" ref="H8:H12" si="1">1-((C8/(D8+C8))^2)-((D8/(C8+D8))^2)</f>
+        <v>0.49925215957998836</v>
       </c>
       <c r="J8">
-        <f>((A8+B8)/199)*F8+((C8+D8)/199)*H8</f>
-        <v>0.49736383872582107</v>
+        <f t="shared" ref="J8:J12" si="2">((A8+B8)/199)*F8+((C8+D8)/199)*H8</f>
+        <v>0.49866435226818695</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2"/>
+      <c r="B9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="16"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -5254,90 +5278,94 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>36</v>
-      </c>
-      <c r="B12" s="7">
-        <v>27</v>
-      </c>
-      <c r="C12" s="10">
-        <v>54</v>
-      </c>
-      <c r="D12" s="11">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="B12" s="11">
+        <v>103</v>
+      </c>
+      <c r="C12" s="9">
+        <v>8</v>
+      </c>
+      <c r="D12" s="8">
+        <v>8</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>0.48979591836734704</v>
+        <v>0.49355734112490862</v>
       </c>
       <c r="H12">
-        <f t="shared" ref="H12" si="1">1-((C12/(D12+C12))^2)-((D12/(C12+D12))^2)</f>
-        <v>0.47637051039697537</v>
+        <f t="shared" si="1"/>
+        <v>0.5</v>
       </c>
       <c r="J12">
-        <f t="shared" ref="J5:J36" si="2">((A12+B12)/199)*F12+((C12+D12)/199)*H12</f>
-        <v>0.48540840850213801</v>
+        <f t="shared" si="2"/>
+        <v>0.49903571913622158</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2"/>
+      <c r="B13" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="16"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="C15" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>19</v>
-      </c>
-      <c r="B16" s="7">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="B16" s="11">
+        <v>35</v>
       </c>
       <c r="C16" s="10">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="D16" s="11">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>0.47480216576426493</v>
+        <f>1-((A16/(B16+A16))^2)-((B16/(A16+B16))^2)</f>
+        <v>0.47859690844233055</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16" si="3">1-((C16/(D16+C16))^2)-((D16/(C16+D16))^2)</f>
-        <v>0.48</v>
+        <f>1-((C16/(D16+C16))^2)-((D16/(C16+D16))^2)</f>
+        <v>0.49801946305442812</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
-        <v>0.21339349810275871</v>
+        <f>((A16+B16)/199)*F16+((C16+D16)/199)*H16</f>
+        <v>0.49736383872582107</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2"/>
+      <c r="B17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="15"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -5352,44 +5380,48 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C19" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B20" s="7">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C20" s="10">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D20" s="11">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>0.47859690844233055</v>
+        <f>1-((A20/(B20+A20))^2)-((B20/(A20+B20))^2)</f>
+        <v>0.48979591836734704</v>
       </c>
       <c r="H20">
-        <f t="shared" ref="H20" si="4">1-((C20/(D20+C20))^2)-((D20/(C20+D20))^2)</f>
-        <v>0.49801946305442812</v>
+        <f>1-((C20/(D20+C20))^2)-((D20/(C20+D20))^2)</f>
+        <v>0.47637051039697537</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
-        <v>0.49736383872582107</v>
+        <f>((A20+B20)/199)*F20+((C20+D20)/199)*H20</f>
+        <v>0.48540840850213801</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
@@ -5416,36 +5448,36 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B24" s="7">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C24" s="10">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D24" s="11">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>0.49382716049382713</v>
+        <f>1-((A24/(B24+A24))^2)-((B24/(A24+B24))^2)</f>
+        <v>0.47480216576426493</v>
       </c>
       <c r="H24">
-        <f t="shared" ref="H24" si="5">1-((C24/(D24+C24))^2)-((D24/(C24+D24))^2)</f>
-        <v>0.49499999999999994</v>
+        <f>1-((C24/(D24+C24))^2)-((D24/(C24+D24))^2)</f>
+        <v>0.49783587257617717</v>
       </c>
       <c r="J24">
         <f>((A24+B24)/199)*F24+((C24+D24)/199)*H24</f>
-        <v>0.49949748743718586</v>
+        <v>0.49716763192978852</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="2"/>
+      <c r="B25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="16"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5470,34 +5502,35 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>0</v>
+        <f>69-B28</f>
+        <v>33</v>
       </c>
       <c r="B28" s="7">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C28" s="10">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="D28" s="11">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="F25:F28" si="3">1-((A28/(B28+A28))^2)-((B28/(A28+B28))^2)</f>
+        <v>0.49905482041587906</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28" si="6">1-((C28/(D28+C28))^2)-((D28/(C28+D28))^2)</f>
-        <v>0.49443195878891955</v>
+        <f t="shared" ref="H25:H28" si="4">1-((C28/(D28+C28))^2)-((D28/(C28+D28))^2)</f>
+        <v>0.49070247933884287</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
-        <v>0.49443195878891955</v>
+        <f t="shared" ref="J25:J28" si="5">((A28+B28)/199)*F28+((C28+D28)/199)*H28</f>
+        <v>0.49853020040916041</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3"/>
@@ -5524,34 +5557,34 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="B32" s="7">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="C32" s="10">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D32" s="11">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
-        <v>0.48956790123456795</v>
+        <f>1-((A32/(B32+A32))^2)-((B32/(A32+B32))^2)</f>
+        <v>0.47859690844233055</v>
       </c>
       <c r="H32">
-        <f t="shared" ref="H32" si="7">1-((C32/(D32+C32))^2)-((D32/(C32+D32))^2)</f>
-        <v>0.47165532879818595</v>
+        <f>1-((C32/(D32+C32))^2)-((D32/(C32+D32))^2)</f>
+        <v>0.49801946305442812</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
-        <v>0.49259791018584992</v>
+        <f>((A32+B32)/199)*F32+((C32+D32)/199)*H32</f>
+        <v>0.49736383872582107</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="3"/>
@@ -5578,34 +5611,34 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B36" s="7">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C36" s="10">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D36" s="11">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
-        <v>0.49987402368354755</v>
+        <f>1-((A36/(B36+A36))^2)-((B36/(A36+B36))^2)</f>
+        <v>0.49382716049382713</v>
       </c>
       <c r="H36">
-        <f t="shared" ref="H36" si="8">1-((C36/(D36+C36))^2)-((D36/(C36+D36))^2)</f>
-        <v>0.45297777777777776</v>
+        <f>1-((C36/(D36+C36))^2)-((D36/(C36+D36))^2)</f>
+        <v>0.49499999999999994</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
-        <v>0.48722341868070518</v>
+        <f>((A36+B36)/199)*F36+((C36+D36)/199)*H36</f>
+        <v>0.49949748743718586</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="3"/>
@@ -5632,19 +5665,208 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
+        <v>0</v>
+      </c>
+      <c r="B40" s="7">
+        <v>1</v>
+      </c>
+      <c r="C40" s="10">
+        <v>89</v>
+      </c>
+      <c r="D40" s="11">
+        <v>110</v>
+      </c>
+      <c r="F40">
+        <f>1-((A40/(B40+A40))^2)-((B40/(A40+B40))^2)</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f>1-((C40/(D40+C40))^2)-((D40/(C40+D40))^2)</f>
+        <v>0.49443195878891955</v>
+      </c>
+      <c r="J40">
+        <f>((A40+B40)/199)*F40+((C40+D40)/199)*H40</f>
+        <v>0.49443195878891955</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>77</v>
+      </c>
+      <c r="B44" s="7">
+        <v>103</v>
+      </c>
+      <c r="C44" s="10">
+        <v>13</v>
+      </c>
+      <c r="D44" s="11">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <f>1-((A44/(B44+A44))^2)-((B44/(A44+B44))^2)</f>
+        <v>0.48956790123456795</v>
+      </c>
+      <c r="H44">
+        <f>1-((C44/(D44+C44))^2)-((D44/(C44+D44))^2)</f>
+        <v>0.47165532879818595</v>
+      </c>
+      <c r="J44">
+        <f>((A44+B44)/199)*F44+((C44+D44)/199)*H44</f>
+        <v>0.49259791018584992</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
         <v>64</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B48" s="7">
         <v>62</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C48" s="10">
         <v>26</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D48" s="11">
         <v>49</v>
+      </c>
+      <c r="F48">
+        <f>1-((A48/(B48+A48))^2)-((B48/(A48+B48))^2)</f>
+        <v>0.49987402368354755</v>
+      </c>
+      <c r="H48">
+        <f>1-((C48/(D48+C48))^2)-((D48/(C48+D48))^2)</f>
+        <v>0.45297777777777776</v>
+      </c>
+      <c r="J48">
+        <f>((A48+B48)/199)*F48+((C48+D48)/199)*H48</f>
+        <v>0.48722341868070518</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>64</v>
+      </c>
+      <c r="B52" s="7">
+        <v>62</v>
+      </c>
+      <c r="C52" s="10">
+        <v>26</v>
+      </c>
+      <c r="D52" s="11">
+        <v>49</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F49:F52" si="6">1-((A52/(B52+A52))^2)-((B52/(A52+B52))^2)</f>
+        <v>0.49987402368354755</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ref="H49:H52" si="7">1-((C52/(D52+C52))^2)-((D52/(C52+D52))^2)</f>
+        <v>0.45297777777777776</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ref="J49:J52" si="8">((A52+B52)/199)*F52+((C52+D52)/199)*H52</f>
+        <v>0.48722341868070518</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>